--- a/doc/功能列表 .xlsx
+++ b/doc/功能列表 .xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户端使用用户查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通讯录预匹配定时任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户端用户以及活跃统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询个人铃音库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +161,6 @@
   </si>
   <si>
     <t>广告播放历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加载后台铃音页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,6 +284,22 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载后台铃音页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取窗口大小接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端使用用户查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端用户以及活跃统计定时任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +329,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +348,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -410,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -433,6 +442,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -729,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -761,56 +773,59 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="6"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -820,7 +835,7 @@
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -832,41 +847,41 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8"/>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
+      <c r="B16" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="8"/>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="8"/>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
+      <c r="B18" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9"/>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -885,86 +900,86 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="8"/>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="8"/>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="8"/>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8"/>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
+      <c r="B25" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="8"/>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
+      <c r="B27" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8"/>
-      <c r="B28" s="1" t="s">
-        <v>41</v>
+      <c r="B28" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="8"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="8"/>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
+      <c r="B30" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="8"/>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="8"/>
-      <c r="B32" s="1" t="s">
-        <v>21</v>
+      <c r="B32" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="8"/>
-      <c r="B33" s="1" t="s">
-        <v>25</v>
+      <c r="B33" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="8"/>
-      <c r="B34" s="1" t="s">
-        <v>23</v>
+      <c r="B34" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="8"/>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
+      <c r="B35" s="10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -975,13 +990,13 @@
         <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -993,13 +1008,13 @@
     <row r="40" spans="1:2">
       <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2">
